--- a/images/Task-report.xlsx
+++ b/images/Task-report.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6754D11A-DBBD-4458-883D-210A32F14546}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>Code Project</t>
   </si>
@@ -30,18 +31,6 @@
     <t>Student</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>Tuần 1</t>
   </si>
   <si>
@@ -85,14 +74,241 @@
   </si>
   <si>
     <t>Nội dung các task đã, đang và sẽ thực hiện (Lưu ý tuần 11 hoặc 12 chốt hết Code, tuần 13 và 14 hoàn thiện các nội dung về doc và thay đổi code nếu cần</t>
+  </si>
+  <si>
+    <t>PAPV</t>
+  </si>
+  <si>
+    <t>Book Library management with flycam and code bar</t>
+  </si>
+  <si>
+    <t>Nguyễn Huỳnh Phú</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Linh</t>
+  </si>
+  <si>
+    <t>Trần Đăng Khánh</t>
+  </si>
+  <si>
+    <t>Trịnh Tiến Hoàng</t>
+  </si>
+  <si>
+    <t>Requirement Gathering
+Design Database</t>
+  </si>
+  <si>
+    <t>Research Flutter
+Research Python
+Report 1</t>
+  </si>
+  <si>
+    <t>Requirement Gathering
+Report 1
+Research Flutter</t>
+  </si>
+  <si>
+    <t>Usecase design
+Report 2
+Web admin design</t>
+  </si>
+  <si>
+    <t>Usecase design
+Report 2
+Update database</t>
+  </si>
+  <si>
+    <t>Research yolo v3
+Requirement Gathering
+Report 2</t>
+  </si>
+  <si>
+    <t>Design mobile app
+Report 2
+Usecase design</t>
+  </si>
+  <si>
+    <t>Design and code web admin(CRUD Librarian, Manage Borrow Book)</t>
+  </si>
+  <si>
+    <t>Build RESTful API and deploy to IIS(CRUD Librarian, Manage Borrow Book)</t>
+  </si>
+  <si>
+    <t>Collect data and train model for AI detect on yolo V5, build Python server on GPU</t>
+  </si>
+  <si>
+    <t>Update diagram, design and code mobile app( search book, view profile)</t>
+  </si>
+  <si>
+    <t>Research stream video
+Design and code web admin(Return Book)
+Write  test case</t>
+  </si>
+  <si>
+    <t>Design and code mobile app(Book detail)
+Write test case
+Update API(Borrow book, Return book)</t>
+  </si>
+  <si>
+    <t>Build server AI detect
+Implement how to know list barcode in a drawer
+Research deepsort</t>
+  </si>
+  <si>
+    <t>Update test case
+Complete web admin
+Update function return book</t>
+  </si>
+  <si>
+    <t>Update test case
+Update UI for mobile app
+Update function return book</t>
+  </si>
+  <si>
+    <t>Write user guide in report 6
+Update UI for mobile app
+Update feature list and document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete web admin
+Update document </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete mobile app, API
+Update document </t>
+  </si>
+  <si>
+    <t>Complete server AI
+Test detect on video 4K
+Record about performance detect</t>
+  </si>
+  <si>
+    <t>Complete document
+Comple mobile app</t>
+  </si>
+  <si>
+    <t>Validation for webadmin
+Test web admin base test case</t>
+  </si>
+  <si>
+    <t>Validation for mobile app, API
+Update document
+Test mobile app</t>
+  </si>
+  <si>
+    <t>Test AI
+Comple AI server
+Update document</t>
+  </si>
+  <si>
+    <t>Prepare powerpoint and presentation
+Hot fix web admin, update document</t>
+  </si>
+  <si>
+    <t>Prepare powerpoint and presentation
+Hot fix mobile app, update document</t>
+  </si>
+  <si>
+    <t>Prepare powerpoint and presentation
+Hot fix system AI, update dataset
+Update document</t>
+  </si>
+  <si>
+    <t>Prepare powerpoint and presentation
+Testing and hot fix
+Complete document</t>
+  </si>
+  <si>
+    <t>Build server AI detect
+Implement how to know list barcode in a drawer
+Write unit test</t>
+  </si>
+  <si>
+    <t>Update activity diagram, sequence diagram
+Design and code mobile app (Return book, Borrow Book)
+Write unit test</t>
+  </si>
+  <si>
+    <t>Research stream video
+Design and code web admin(Borrow Book)
+Update usecase spec</t>
+  </si>
+  <si>
+    <t>Build server AI detect
+Implement detect get box of barcode and read barcode
+Update usecase spec</t>
+  </si>
+  <si>
+    <t>Research paper AI
+Create label for dataset
+Update usecase spec</t>
+  </si>
+  <si>
+    <t>Design and code mobile app(Update Profile)
+Implement SignalR
+Update usecase spec
+Update activity diagram</t>
+  </si>
+  <si>
+    <t>Design and code web admin(CRUD Bookgroup, CRUD Bookshelf)
+Usecase spec (Report 3)
+ERD
+Update database</t>
+  </si>
+  <si>
+    <t>Build RESTful API and deploy to IIS(CRUD Bookgroup, CRUD Bookshelf)
+Usecase spec (Report 3)
+Non fuctional requirement (Report 3)
+Update database</t>
+  </si>
+  <si>
+    <t>Collect data and train model for AI detect on yolo V3
+Usecase spec (Report 3)
+Screen flow (Report 3)
+design and code mobile app(Feedback)</t>
+  </si>
+  <si>
+    <t>Design and code mobile app(Login, Signup)
+Use case diagram (Report 3)
+Usecase spec (Report 3)
+Update use case</t>
+  </si>
+  <si>
+    <t>Build RESTful API and deploy to IIS(CRUD Location, Drawer, Add book to drawer)
+Activity Diagram (Report 4)</t>
+  </si>
+  <si>
+    <t>Collect data and train model for AI detect on yolo V4
+Class diagram (Report 4)
+Design and code mobile app (add book to wishlist)</t>
+  </si>
+  <si>
+    <t>Design and code mobile app(Scan QR code)
+Sequence diagram (Report 4)
+Update usecase</t>
+  </si>
+  <si>
+    <t>Design and code web admin(CRUD Location, Drawer, Add book to drawer)
+System Architecture Design (Report 4)</t>
+  </si>
+  <si>
+    <t>Slot 1-2 Thứ 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -146,22 +362,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -169,6 +421,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -215,7 +475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,9 +507,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,6 +559,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,133 +752,356 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.85546875" customWidth="1"/>
+    <col min="8" max="8" width="48.28515625" customWidth="1"/>
+    <col min="9" max="9" width="71.7109375" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.85546875" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" customWidth="1"/>
+    <col min="13" max="13" width="34.85546875" customWidth="1"/>
+    <col min="14" max="14" width="32.7109375" customWidth="1"/>
+    <col min="15" max="15" width="34.7109375" customWidth="1"/>
+    <col min="16" max="16" width="41.28515625" customWidth="1"/>
+    <col min="17" max="17" width="45.140625" customWidth="1"/>
+    <col min="18" max="18" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="E1" s="4" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18" s="8" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+    <row r="6" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="68.25" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="1" t="s">
+    <row r="7" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1">
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" s="1" customFormat="1">
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" s="1" customFormat="1">
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" s="1" customFormat="1">
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -594,24 +1113,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
